--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,82 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="1 dashboard" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="2 signup" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="3 homePage" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="1 Us-en" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Label_id</t>
+  </si>
   <si>
     <t>Label_name</t>
   </si>
   <si>
-    <t>Label_value</t>
+    <t>Translation_value</t>
   </si>
   <si>
-    <t>Language_id</t>
+    <t>demoLabel1</t>
   </si>
   <si>
-    <t>userDatabase</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>newLanguage</t>
-  </si>
-  <si>
-    <t>newPage</t>
-  </si>
-  <si>
-    <t>newLabel</t>
-  </si>
-  <si>
-    <t>updateLabel</t>
-  </si>
-  <si>
-    <t>fullTemplate</t>
-  </si>
-  <si>
-    <t>downloadTemplates</t>
-  </si>
-  <si>
-    <t>completeUpload</t>
-  </si>
-  <si>
-    <t>signUp</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>demoLabel2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -87,22 +40,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <family val="4"/>
-      <sz val="15"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="#B0E0E6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,10 +61,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,189 +402,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="28" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C10:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C10:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C10:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C500">
-      <formula1>"1 US-en,2 IN-hi,3 IN-kn,4 es,5 EU-Ge,6 EU-fr,7 Chinese,8 Russian"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,28 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="1 Us-en" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Add_Labels" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Label_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Label_name</t>
   </si>
   <si>
-    <t>Translation_value</t>
+    <t>1 US-en</t>
   </si>
   <si>
-    <t>demoLabel1</t>
-  </si>
-  <si>
-    <t>demoLabel2</t>
+    <t>2 IN-hi</t>
   </si>
 </sst>
 </file>
@@ -402,11 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="3" width="28" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,22 +414,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,22 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Add_Labels" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="1 US-en" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Label_id</t>
+  </si>
   <si>
     <t>Label_name</t>
   </si>
   <si>
-    <t>1 US-en</t>
+    <t>Translation_value</t>
   </si>
   <si>
-    <t>2 IN-hi</t>
+    <t>demoLabel1</t>
+  </si>
+  <si>
+    <t>demoLabel2</t>
   </si>
 </sst>
 </file>
@@ -396,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -412,6 +418,22 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="1 US-en" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Update_Labels" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Label_id</t>
+    <t>Translation_id</t>
   </si>
   <si>
     <t>Label_name</t>
@@ -22,10 +22,10 @@
     <t>Translation_value</t>
   </si>
   <si>
-    <t>demoLabel1</t>
+    <t>Language</t>
   </si>
   <si>
-    <t>demoLabel2</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -402,14 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="3" width="28" customWidth="1"/>
+    <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,20 +420,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Translation_id</t>
   </si>
@@ -26,6 +26,33 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hello english</t>
+  </si>
+  <si>
+    <t>US-en English</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>kannada hello</t>
+  </si>
+  <si>
+    <t>IN-kn Kannada</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>hello in english</t>
+  </si>
+  <si>
+    <t>bye in english</t>
   </si>
 </sst>
 </file>
@@ -402,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -427,6 +454,108 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,55 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Update_Labels" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Add_Labels" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
-  <si>
-    <t>Translation_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Label_name</t>
   </si>
   <si>
-    <t>Translation_value</t>
+    <t>1 US-en</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hello english</t>
-  </si>
-  <si>
-    <t>US-en English</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>kannada hello</t>
-  </si>
-  <si>
-    <t>IN-kn Kannada</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>hello in english</t>
-  </si>
-  <si>
-    <t>bye in english</t>
+    <t>2 IN-kn</t>
   </si>
 </sst>
 </file>
@@ -429,15 +396,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,114 +413,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -4,22 +4,88 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Add_Labels" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Update_Labels" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+  <si>
+    <t>Translation_id</t>
+  </si>
   <si>
     <t>Label_name</t>
   </si>
   <si>
-    <t>1 US-en</t>
-  </si>
-  <si>
-    <t>2 IN-kn</t>
+    <t>Translation_value</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>userDatabase</t>
+  </si>
+  <si>
+    <t>User database updated</t>
+  </si>
+  <si>
+    <t>US-en English</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ಬಳಕೆದಾರರ ಡೇಟಾಬೇಸ್</t>
+  </si>
+  <si>
+    <t>IN-kn ಕನ್ನಡ</t>
+  </si>
+  <si>
+    <t>उपयोगकर्ता डेटाबेस</t>
+  </si>
+  <si>
+    <t>IN-hi हिन्दी</t>
+  </si>
+  <si>
+    <t>welcomeHome</t>
+  </si>
+  <si>
+    <t>welcome home in eng</t>
+  </si>
+  <si>
+    <t>welcome home in kn</t>
+  </si>
+  <si>
+    <t>welcome home in hi</t>
+  </si>
+  <si>
+    <t>Appa</t>
+  </si>
+  <si>
+    <t>appa in english</t>
+  </si>
+  <si>
+    <t>appa in kannada</t>
+  </si>
+  <si>
+    <t>appa in hindi</t>
+  </si>
+  <si>
+    <t>appa in beautiful french</t>
+  </si>
+  <si>
+    <t>EU-fr French</t>
+  </si>
+  <si>
+    <t>user in french</t>
+  </si>
+  <si>
+    <t>french welcome</t>
   </si>
 </sst>
 </file>
@@ -396,14 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,6 +479,216 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/writeTemplate.xlsx
+++ b/uploads/writeTemplate.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="62">
   <si>
     <t>Translation_id</t>
   </si>
@@ -31,61 +31,172 @@
     <t>userDatabase</t>
   </si>
   <si>
-    <t>User database updated</t>
-  </si>
-  <si>
-    <t>US-en English</t>
+    <t>User Database</t>
+  </si>
+  <si>
+    <t>US_en English</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
-    <t>ಬಳಕೆದಾರರ ಡೇಟಾಬೇಸ್</t>
-  </si>
-  <si>
-    <t>IN-kn ಕನ್ನಡ</t>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>Translations</t>
+  </si>
+  <si>
+    <t>ಯುಸರ್ ಡೇಟಾಬೇಸ್</t>
+  </si>
+  <si>
+    <t>IN_kn Kannada</t>
+  </si>
+  <si>
+    <t>ಅನುವಾದ</t>
   </si>
   <si>
     <t>उपयोगकर्ता डेटाबेस</t>
   </si>
   <si>
-    <t>IN-hi हिन्दी</t>
-  </si>
-  <si>
-    <t>welcomeHome</t>
-  </si>
-  <si>
-    <t>welcome home in eng</t>
-  </si>
-  <si>
-    <t>welcome home in kn</t>
-  </si>
-  <si>
-    <t>welcome home in hi</t>
-  </si>
-  <si>
-    <t>Appa</t>
-  </si>
-  <si>
-    <t>appa in english</t>
-  </si>
-  <si>
-    <t>appa in kannada</t>
-  </si>
-  <si>
-    <t>appa in hindi</t>
-  </si>
-  <si>
-    <t>appa in beautiful french</t>
-  </si>
-  <si>
-    <t>EU-fr French</t>
-  </si>
-  <si>
-    <t>user in french</t>
-  </si>
-  <si>
-    <t>french welcome</t>
+    <t xml:space="preserve">IN_hi Hindi </t>
+  </si>
+  <si>
+    <t>अनुवाद</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>EXCEL UPLOAD OPTIONS:</t>
+  </si>
+  <si>
+    <t>ಎಕ್ಸೆಲ್ ಅಪ್‌ಲೋಡ್ ಆಯ್ಕೆಗಳು:</t>
+  </si>
+  <si>
+    <t>एक्सेल अपलोड विकल्प:</t>
+  </si>
+  <si>
+    <t>newLanguage</t>
+  </si>
+  <si>
+    <t>Add New Language</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಭಾಷೆಯನ್ನು ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>नई भाषा जोड़ें</t>
+  </si>
+  <si>
+    <t>clicknewlang</t>
+  </si>
+  <si>
+    <t>Click to add new language</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಭಾಷೆಯನ್ನು ಸೇರಿಸಲು ಕ್ಲಿಕ್ ಮಾಡಿ</t>
+  </si>
+  <si>
+    <t>नई भाषा जोड़ने के लिए क्लिक करें</t>
+  </si>
+  <si>
+    <t>newPage</t>
+  </si>
+  <si>
+    <t>Add New Page</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಪುಟವನ್ನು ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>नया पेज जोड़ें</t>
+  </si>
+  <si>
+    <t>clicknewpage</t>
+  </si>
+  <si>
+    <t>Click to add new page</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಪುಟವನ್ನು ಸೇರಿಸಲು ಕ್ಲಿಕ್ ಮಾಡಿ</t>
+  </si>
+  <si>
+    <t>नया पेज जोड़ने के लिए क्लिक करें</t>
+  </si>
+  <si>
+    <t>newLabel</t>
+  </si>
+  <si>
+    <t>Add New Labels</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಲೇಬಲ್‌ಗಳನ್ನು ಸೇರಿಸಿ</t>
+  </si>
+  <si>
+    <t>नए लेबल जोड़ें</t>
+  </si>
+  <si>
+    <t>clicknewlabel</t>
+  </si>
+  <si>
+    <t>Click to add new labels</t>
+  </si>
+  <si>
+    <t>ಹೊಸ ಲೇಬಲ್‌ಗಳನ್ನು ಸೇರಿಸಲು ಕ್ಲಿಕ್ ಮಾಡಿ</t>
+  </si>
+  <si>
+    <t>नए लेबल जोड़ने के लिए क्लिक करें</t>
+  </si>
+  <si>
+    <t>updateLabel</t>
+  </si>
+  <si>
+    <t>Update existing labels</t>
+  </si>
+  <si>
+    <t>ಅಸ್ತಿತ್ವದಲ್ಲಿರುವ ಲೇಬಲ್‌ಗಳನ್ನು ನವೀಕರಿಸಿ</t>
+  </si>
+  <si>
+    <t>मौजूदा लेबल अपडेट करें</t>
+  </si>
+  <si>
+    <t>clickupdate</t>
+  </si>
+  <si>
+    <t>Click to update existing labels</t>
+  </si>
+  <si>
+    <t>ಅಸ್ತಿತ್ವದಲ್ಲಿರುವ ಲೇಬಲ್‌ಗಳನ್ನು ನವೀಕರಿಸಲು ಕ್ಲಿಕ್ ಮಾಡಿ</t>
+  </si>
+  <si>
+    <t>मौजूदा लेबल अपडेट करने के लिए क्लिक करें</t>
+  </si>
+  <si>
+    <t>EU_fr French</t>
+  </si>
+  <si>
+    <t>menu déroulant</t>
+  </si>
+  <si>
+    <t>nouveau langage</t>
+  </si>
+  <si>
+    <t>cliquez sur nouvelle langue</t>
+  </si>
+  <si>
+    <t>nouvelle page</t>
+  </si>
+  <si>
+    <t>cliquez sur nouvelle page</t>
+  </si>
+  <si>
+    <t>Nouvelle étiquette</t>
+  </si>
+  <si>
+    <t>cliquez sur nouveau libellé</t>
+  </si>
+  <si>
+    <t>cliquez sur mettre à jour</t>
   </si>
 </sst>
 </file>
@@ -462,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -509,13 +620,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -543,13 +654,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -560,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -577,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -617,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -634,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -645,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -662,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -679,15 +790,559 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
         <v>8</v>
       </c>
     </row>
